--- a/output/Nike.xlsx
+++ b/output/Nike.xlsx
@@ -142,7 +142,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFD0E0E3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -190,7 +190,6 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B25" totalsRowShown="0">
-  <autoFilter ref="A1:B25"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Nombre"/>
     <tableColumn id="2" name="Precio"/>

--- a/output/Nike.xlsx
+++ b/output/Nike.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="59">
   <si>
     <t>Nombre</t>
   </si>
@@ -22,94 +22,175 @@
     <t>Precio</t>
   </si>
   <si>
+    <t>Nike Air Force 1 '07 Pro-Tech</t>
+  </si>
+  <si>
+    <t>Nike Air Force 1 '07</t>
+  </si>
+  <si>
     <t>Nike Air Force 1 LV8 5</t>
   </si>
   <si>
+    <t>Nike Force 1 LE</t>
+  </si>
+  <si>
     <t>Nike Air Force 1 Wild</t>
   </si>
   <si>
+    <t>Nike Air Force 1 SE</t>
+  </si>
+  <si>
+    <t>Nike Air Force 1 '07 Next Nature</t>
+  </si>
+  <si>
+    <t>Nike Force 1 Low SE EasyOn</t>
+  </si>
+  <si>
+    <t>Nike Air Force 1 '07 LV8</t>
+  </si>
+  <si>
+    <t>Nike Air Force 1 LV8</t>
+  </si>
+  <si>
+    <t>Nike Force 1 Low EasyOn</t>
+  </si>
+  <si>
+    <t>Nike Force 1 Mid SE EasyOn</t>
+  </si>
+  <si>
+    <t>Nike Force 1</t>
+  </si>
+  <si>
+    <t>Nike Air Force 1 '07 Premium</t>
+  </si>
+  <si>
+    <t>Nike Air Force 1 High</t>
+  </si>
+  <si>
     <t>Nike Force 1 Low LV8 EasyOn</t>
   </si>
   <si>
     <t>Nike Air Force 1 '07 LX</t>
   </si>
   <si>
-    <t>Nike Air Force 1 '07</t>
-  </si>
-  <si>
-    <t>Nike Air Force 1 LV8 4</t>
+    <t>Nike Air Force 1 ’07</t>
+  </si>
+  <si>
+    <t>Nike Force 1 Low LV8 2 EasyOn</t>
   </si>
   <si>
     <t>Nike Air Force 1 LE</t>
   </si>
   <si>
-    <t>Nike Air Force 1 Low Retro Premium</t>
-  </si>
-  <si>
-    <t>Nike Air Force 1 Shadow</t>
-  </si>
-  <si>
     <t>Nike Air Force 1</t>
   </si>
   <si>
-    <t>Nike Air Force 1 '07 EasyOn</t>
-  </si>
-  <si>
-    <t>Nike Air Force 1 Sage Low</t>
-  </si>
-  <si>
-    <t>Nike Air Force 1 LV8</t>
-  </si>
-  <si>
     <t>Nike Air Force 1 Mid EasyOn</t>
   </si>
   <si>
-    <t>Nike Air Force 1 '07 LV8</t>
-  </si>
-  <si>
-    <t>Nike Air Force 1 '07 Fresh</t>
-  </si>
-  <si>
-    <t>Nike Air Force 1 '07 Next Nature</t>
-  </si>
-  <si>
-    <t>$2,159</t>
-  </si>
-  <si>
-    <t>$2,719</t>
-  </si>
-  <si>
-    <t>$1,849</t>
-  </si>
-  <si>
-    <t>$2,789</t>
-  </si>
-  <si>
-    <t>$2,599</t>
-  </si>
-  <si>
-    <t>$1,919</t>
-  </si>
-  <si>
-    <t>$1,999</t>
-  </si>
-  <si>
-    <t>$3,099</t>
-  </si>
-  <si>
-    <t>$2,799</t>
-  </si>
-  <si>
-    <t>$2,399</t>
-  </si>
-  <si>
-    <t>$2,199</t>
-  </si>
-  <si>
-    <t>$3,399</t>
-  </si>
-  <si>
-    <t>$2,379</t>
+    <t>Nike Force 1 Mid EasyOn</t>
+  </si>
+  <si>
+    <t>Nike Air Force 1 PLT.AF.ORM</t>
+  </si>
+  <si>
+    <t>Nike Air Force 1 Mid '07</t>
+  </si>
+  <si>
+    <t>$123.97</t>
+  </si>
+  <si>
+    <t>$115</t>
+  </si>
+  <si>
+    <t>$87.97</t>
+  </si>
+  <si>
+    <t>$95.97</t>
+  </si>
+  <si>
+    <t>$70</t>
+  </si>
+  <si>
+    <t>$101.97</t>
+  </si>
+  <si>
+    <t>$80.97</t>
+  </si>
+  <si>
+    <t>$89.97</t>
+  </si>
+  <si>
+    <t>$67.97</t>
+  </si>
+  <si>
+    <t>$79.97</t>
+  </si>
+  <si>
+    <t>$99.97</t>
+  </si>
+  <si>
+    <t>$105</t>
+  </si>
+  <si>
+    <t>$85</t>
+  </si>
+  <si>
+    <t>$90</t>
+  </si>
+  <si>
+    <t>$37.97</t>
+  </si>
+  <si>
+    <t>$112.97</t>
+  </si>
+  <si>
+    <t>$130</t>
+  </si>
+  <si>
+    <t>$41.97</t>
+  </si>
+  <si>
+    <t>$58.97</t>
+  </si>
+  <si>
+    <t>$111.97</t>
+  </si>
+  <si>
+    <t>$57.97</t>
+  </si>
+  <si>
+    <t>$65.97</t>
+  </si>
+  <si>
+    <t>$94.97</t>
+  </si>
+  <si>
+    <t>$145</t>
+  </si>
+  <si>
+    <t>$100</t>
+  </si>
+  <si>
+    <t>$46.97</t>
+  </si>
+  <si>
+    <t>$83.97</t>
+  </si>
+  <si>
+    <t>$105.97</t>
+  </si>
+  <si>
+    <t>$80</t>
+  </si>
+  <si>
+    <t>$91.97</t>
+  </si>
+  <si>
+    <t>$90.97</t>
+  </si>
+  <si>
+    <t>$125</t>
   </si>
 </sst>
 </file>
@@ -127,7 +208,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -189,7 +270,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B25" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B49" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" name="Nombre"/>
     <tableColumn id="2" name="Precio"/>
@@ -483,14 +564,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -506,7 +587,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -514,7 +595,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -522,175 +603,367 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
